--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>65.270271945014983</v>
+        <v>65.270271947939165</v>
       </c>
       <c r="C2">
-        <v>68.561469432249993</v>
+        <v>68.561469414130073</v>
       </c>
       <c r="D2">
-        <v>58.582501777497527</v>
+        <v>58.582501786052667</v>
       </c>
       <c r="E2">
-        <v>72.5113771218019</v>
+        <v>72.511377129057337</v>
       </c>
       <c r="F2">
-        <v>45.201900818982239</v>
+        <v>45.201900819775176</v>
       </c>
       <c r="G2">
-        <v>57.302830269008659</v>
+        <v>57.302830247428993</v>
       </c>
       <c r="H2">
-        <v>50.882517835785855</v>
+        <v>50.882517796281185</v>
       </c>
       <c r="I2">
-        <v>60.05338736934597</v>
+        <v>60.053387367530235</v>
       </c>
       <c r="J2">
-        <v>72.181089554470915</v>
+        <v>72.181089551001179</v>
       </c>
       <c r="K2">
-        <v>56.638447429349057</v>
+        <v>56.638447419271699</v>
       </c>
       <c r="L2">
-        <v>56.682865656090662</v>
+        <v>56.682865697985996</v>
       </c>
       <c r="M2">
-        <v>65.793015953507222</v>
+        <v>65.793015923109209</v>
       </c>
       <c r="N2">
-        <v>63.621947839891078</v>
+        <v>63.621947815756968</v>
       </c>
       <c r="O2">
-        <v>50.720883995457143</v>
+        <v>50.720884012982765</v>
       </c>
       <c r="P2">
-        <v>61.951153351480784</v>
+        <v>61.951153317308282</v>
       </c>
       <c r="Q2">
-        <v>63.467330093484748</v>
+        <v>63.467330085358093</v>
       </c>
       <c r="R2">
-        <v>56.772752200810771</v>
+        <v>56.772752221374418</v>
       </c>
       <c r="S2">
-        <v>84.083353307694239</v>
+        <v>84.08335315409434</v>
       </c>
       <c r="T2">
-        <v>65.140772535058161</v>
+        <v>65.140772539358721</v>
       </c>
       <c r="U2">
-        <v>60.699203867451772</v>
+        <v>60.699203850983807</v>
       </c>
       <c r="V2">
-        <v>53.977081054785771</v>
+        <v>53.977081018188876</v>
       </c>
       <c r="W2">
-        <v>49.599097177109257</v>
+        <v>49.599097102178334</v>
       </c>
       <c r="X2">
-        <v>59.004712934488992</v>
+        <v>59.004712937094425</v>
       </c>
       <c r="Y2">
-        <v>62.301620274124531</v>
+        <v>62.301620259313715</v>
       </c>
       <c r="Z2">
-        <v>61.626800756371836</v>
+        <v>61.626800735623092</v>
       </c>
       <c r="AA2">
-        <v>80.752464073620629</v>
+        <v>80.752464140581594</v>
       </c>
       <c r="AB2">
-        <v>82.12883102161247</v>
+        <v>82.128830973799978</v>
       </c>
       <c r="AC2">
-        <v>54.869620982359919</v>
+        <v>54.869620958936594</v>
       </c>
       <c r="AD2">
-        <v>79.91109184208338</v>
+        <v>79.911091813955437</v>
       </c>
       <c r="AE2">
-        <v>53.207256988345499</v>
+        <v>53.207256993142224</v>
       </c>
       <c r="AF2">
-        <v>61.443374732543319</v>
+        <v>61.443374693867931</v>
       </c>
       <c r="AG2">
-        <v>55.058376433906616</v>
+        <v>55.058376391304407</v>
       </c>
       <c r="AH2">
-        <v>64.325609815896556</v>
+        <v>64.32560979709497</v>
       </c>
       <c r="AI2">
-        <v>84.602018385632007</v>
+        <v>84.602018253757322</v>
       </c>
       <c r="AJ2">
-        <v>60.438377823617301</v>
+        <v>60.438377780546034</v>
       </c>
       <c r="AK2">
-        <v>63.131591120524192</v>
+        <v>63.131591088744877</v>
       </c>
       <c r="AL2">
-        <v>72.042727043096477</v>
+        <v>72.042727002169613</v>
       </c>
       <c r="AM2">
-        <v>67.619525025977083</v>
+        <v>67.619524936529714</v>
       </c>
       <c r="AN2">
-        <v>53.094941877967401</v>
+        <v>53.094941844320054</v>
       </c>
       <c r="AO2">
-        <v>71.250371283275939</v>
+        <v>71.25037140994516</v>
       </c>
       <c r="AP2">
-        <v>69.035111729699224</v>
+        <v>69.035111704710332</v>
       </c>
       <c r="AQ2">
-        <v>60.124740185581437</v>
+        <v>60.124740101386323</v>
       </c>
       <c r="AR2">
-        <v>83.447937175966871</v>
+        <v>83.447937167916521</v>
       </c>
       <c r="AS2">
-        <v>76.17801448457179</v>
+        <v>76.178014405360557</v>
       </c>
       <c r="AT2">
-        <v>68.649980891863436</v>
+        <v>68.649980972873649</v>
       </c>
       <c r="AU2">
-        <v>60.380176754921294</v>
+        <v>60.380176699017362</v>
       </c>
       <c r="AV2">
-        <v>64.254420872476715</v>
+        <v>64.254420917441806</v>
       </c>
       <c r="AW2">
-        <v>59.306639450598936</v>
+        <v>59.306639370164078</v>
       </c>
       <c r="AX2">
-        <v>70.87640773486514</v>
+        <v>70.876407676225824</v>
       </c>
       <c r="AY2">
-        <v>70.724576507791625</v>
+        <v>70.72457646312877</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>70.384486312871147</v>
+        <v>70.384486170290501</v>
       </c>
       <c r="C3">
-        <v>63.98850516288519</v>
+        <v>63.988505143930759</v>
       </c>
       <c r="D3">
-        <v>60.483041367268655</v>
+        <v>60.483041289375052</v>
       </c>
       <c r="E3">
-        <v>66.568592838553215</v>
+        <v>66.568592819410867</v>
       </c>
       <c r="F3">
-        <v>45.104270030611147</v>
+        <v>45.104270007755218</v>
       </c>
       <c r="G3">
-        <v>62.634653439476907</v>
+        <v>62.634653421785274</v>
       </c>
       <c r="H3">
-        <v>45.567129161964843</v>
+        <v>45.567129172119166</v>
       </c>
       <c r="I3">
-        <v>63.224074895407782</v>
+        <v>63.224074880552791</v>
       </c>
       <c r="J3">
-        <v>75.961147537472357</v>
+        <v>75.961147481147549</v>
       </c>
       <c r="K3">
-        <v>67.035339659676282</v>
+        <v>67.035339652979559</v>
       </c>
       <c r="L3">
-        <v>60.546056615088851</v>
+        <v>60.546056585837334</v>
       </c>
       <c r="M3">
-        <v>67.61792589989534</v>
+        <v>67.617387028753711</v>
       </c>
       <c r="N3">
-        <v>64.919210043175056</v>
+        <v>64.919210033023205</v>
       </c>
       <c r="O3">
-        <v>40.165420665261237</v>
+        <v>40.165420668649077</v>
       </c>
       <c r="P3">
-        <v>66.101075120337924</v>
+        <v>66.1010750680895</v>
       </c>
       <c r="Q3">
-        <v>56.926436037132333</v>
+        <v>56.926436002500452</v>
       </c>
       <c r="R3">
-        <v>51.026369658694222</v>
+        <v>51.026369555577283</v>
       </c>
       <c r="S3">
-        <v>77.160538812303344</v>
+        <v>77.16053878347347</v>
       </c>
       <c r="T3">
-        <v>66.522765447997159</v>
+        <v>66.522765423193363</v>
       </c>
       <c r="U3">
-        <v>63.867127695169657</v>
+        <v>63.86712766860353</v>
       </c>
       <c r="V3">
-        <v>57.67218622801785</v>
+        <v>57.672186238759423</v>
       </c>
       <c r="W3">
-        <v>53.268156195387547</v>
+        <v>53.26815614806938</v>
       </c>
       <c r="X3">
-        <v>52.266620308446136</v>
+        <v>52.266620294112244</v>
       </c>
       <c r="Y3">
-        <v>71.506540685526176</v>
+        <v>71.506540644644019</v>
       </c>
       <c r="Z3">
-        <v>67.019583136776987</v>
+        <v>67.019583118105118</v>
       </c>
       <c r="AA3">
-        <v>77.568105248313287</v>
+        <v>77.568105282055754</v>
       </c>
       <c r="AB3">
-        <v>73.724019517589269</v>
+        <v>73.724019474240237</v>
       </c>
       <c r="AC3">
-        <v>61.886324577887066</v>
+        <v>61.886324484830411</v>
       </c>
       <c r="AD3">
-        <v>80.927140926005421</v>
+        <v>80.927140792536704</v>
       </c>
       <c r="AE3">
-        <v>55.929826726313266</v>
+        <v>55.929826632355585</v>
       </c>
       <c r="AF3">
-        <v>65.567163379756437</v>
+        <v>65.567163319827571</v>
       </c>
       <c r="AG3">
-        <v>58.404226751269711</v>
+        <v>58.404226706948329</v>
       </c>
       <c r="AH3">
-        <v>73.196815663916055</v>
+        <v>73.196815625248405</v>
       </c>
       <c r="AI3">
-        <v>98.341645568717553</v>
+        <v>98.341645654595538</v>
       </c>
       <c r="AJ3">
-        <v>66.502189569419329</v>
+        <v>66.502189501896112</v>
       </c>
       <c r="AK3">
-        <v>69.550601045611529</v>
+        <v>69.550600884804425</v>
       </c>
       <c r="AL3">
-        <v>72.060608462511411</v>
+        <v>72.060608404301377</v>
       </c>
       <c r="AM3">
-        <v>76.406761096298993</v>
+        <v>76.406761011856247</v>
       </c>
       <c r="AN3">
-        <v>49.814428384197456</v>
+        <v>49.814428362537654</v>
       </c>
       <c r="AO3">
-        <v>75.148570494728233</v>
+        <v>75.148570324804382</v>
       </c>
       <c r="AP3">
-        <v>58.873420284175751</v>
+        <v>58.87342024853298</v>
       </c>
       <c r="AQ3">
-        <v>56.915778382784723</v>
+        <v>56.915778343696957</v>
       </c>
       <c r="AR3">
-        <v>86.754310084194046</v>
+        <v>86.754310175715915</v>
       </c>
       <c r="AS3">
-        <v>66.711730013393947</v>
+        <v>66.711730042533702</v>
       </c>
       <c r="AT3">
-        <v>68.938987137780373</v>
+        <v>68.938987067698548</v>
       </c>
       <c r="AU3">
-        <v>60.11487221028348</v>
+        <v>60.114872120259953</v>
       </c>
       <c r="AV3">
-        <v>57.088732963590786</v>
+        <v>57.088732875508498</v>
       </c>
       <c r="AW3">
-        <v>60.564114467890832</v>
+        <v>60.564113645939017</v>
       </c>
       <c r="AX3">
-        <v>65.971450971718596</v>
+        <v>65.971450785856888</v>
       </c>
       <c r="AY3">
-        <v>77.676581892178717</v>
+        <v>77.676581847296006</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>65.270271947939165</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>68.561469414130073</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>58.582501786052667</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>72.511377129057337</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>45.201900819775176</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>57.302830247428993</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>50.882517796281185</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>60.053387367530235</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>72.181089551001179</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>56.638447419271699</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>56.682865697985996</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>65.793015923109209</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>63.621947815756968</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>50.720884012982765</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>61.951153317308282</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>63.467330085358093</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>56.772752221374418</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>84.08335315409434</v>
+        <v>76.512638354785253</v>
       </c>
       <c r="T2">
         <v>65.140772539358721</v>
@@ -588,55 +477,55 @@
         <v>61.626800735623092</v>
       </c>
       <c r="AA2">
-        <v>80.752464140581594</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>82.128830973799978</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>54.869620958936594</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>79.911091813955437</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>53.207256993142224</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>61.443374693867931</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>55.058376391304407</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>64.32560979709497</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>84.602018253757322</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>60.438377780546034</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>63.131591088744877</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>72.042727002169613</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>67.619524936529714</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>53.094941844320054</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>71.25037140994516</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>69.035111704710332</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>60.124740101386323</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>83.447937167916521</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>70.384486170290501</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>63.988505143930759</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>60.483041289375052</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>66.568592819410867</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>45.104270007755218</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>62.634653421785274</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>45.567129172119166</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>63.224074880552791</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>75.961147481147549</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>67.035339652979559</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>60.546056585837334</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>67.617387028753711</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>64.919210033023205</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>40.165420668649077</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>66.1010750680895</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>56.926436002500452</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>51.026369555577283</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>77.16053878347347</v>
@@ -743,55 +629,55 @@
         <v>67.019583118105118</v>
       </c>
       <c r="AA3">
-        <v>77.568105282055754</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>73.724019474240237</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>61.886324484830411</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>80.927140792536704</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>55.929826632355585</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>65.567163319827571</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>58.404226706948329</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>73.196815625248405</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>98.341645654595538</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>66.502189501896112</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>69.550600884804425</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>72.060608404301377</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>76.406761011856247</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>49.814428362537654</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>75.148570324804382</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>58.87342024853298</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>56.915778343696957</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>86.754310175715915</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>65.270271945014983</v>
+        <v>50.720884012982765</v>
       </c>
       <c r="C2">
-        <v>66.48939700152286</v>
+        <v>56.772752221374418</v>
       </c>
       <c r="D2">
-        <v>58.582501777497527</v>
+        <v>53.094941844320054</v>
       </c>
       <c r="E2">
-        <v>72.5113771218019</v>
+        <v>60.124740101386323</v>
       </c>
       <c r="F2">
         <v>45.201900818982239</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>70.384486312871147</v>
+        <v>45.78411335805194</v>
       </c>
       <c r="C3">
-        <v>63.98850516288519</v>
+        <v>51.026369555577283</v>
       </c>
       <c r="D3">
-        <v>60.483041367268655</v>
+        <v>51.476800363831472</v>
       </c>
       <c r="E3">
-        <v>66.568592838553215</v>
+        <v>56.726197686557249</v>
       </c>
       <c r="F3">
         <v>45.104270030611147</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>65.270271945014983</v>
+        <v>63.027085352698712</v>
       </c>
       <c r="C2">
-        <v>66.48939700152286</v>
+        <v>50.720884012982765</v>
       </c>
       <c r="D2">
-        <v>58.582501777497527</v>
+        <v>67.619524936529714</v>
       </c>
       <c r="E2">
-        <v>72.5113771218019</v>
+        <v>53.094941844320054</v>
       </c>
       <c r="F2">
         <v>45.201900818982239</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>70.384486312871147</v>
+        <v>64.919210033023205</v>
       </c>
       <c r="C3">
-        <v>63.98850516288519</v>
+        <v>45.78411335805194</v>
       </c>
       <c r="D3">
-        <v>60.483041367268655</v>
+        <v>76.406761011856247</v>
       </c>
       <c r="E3">
-        <v>71.772855443398356</v>
+        <v>51.476800363831472</v>
       </c>
       <c r="F3">
         <v>45.104270030611147</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>65.270271947939165</v>
+      </c>
+      <c r="C2">
+        <v>66.489396927767842</v>
+      </c>
+      <c r="D2">
+        <v>58.582501786052667</v>
+      </c>
+      <c r="E2">
+        <v>72.511377129057337</v>
+      </c>
+      <c r="F2">
+        <v>45.201900819775176</v>
+      </c>
+      <c r="G2">
+        <v>61.021035946187631</v>
+      </c>
+      <c r="H2">
+        <v>50.882517796281185</v>
+      </c>
+      <c r="I2">
+        <v>64.035697040330703</v>
+      </c>
+      <c r="J2">
+        <v>72.181089551001179</v>
+      </c>
+      <c r="K2">
+        <v>56.638447419271699</v>
+      </c>
+      <c r="L2">
+        <v>59.546320172684737</v>
+      </c>
+      <c r="M2">
+        <v>72.686021656960463</v>
+      </c>
+      <c r="N2">
         <v>63.027085352698712</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>50.720884012982765</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>63.334500001226708</v>
+      </c>
+      <c r="Q2">
+        <v>63.467330085358093</v>
+      </c>
+      <c r="R2">
+        <v>56.772752221374418</v>
+      </c>
+      <c r="T2">
+        <v>62.255827539744097</v>
+      </c>
+      <c r="U2">
+        <v>60.699203850983807</v>
+      </c>
+      <c r="V2">
+        <v>57.136437560124662</v>
+      </c>
+      <c r="W2">
+        <v>49.599097102178334</v>
+      </c>
+      <c r="X2">
+        <v>59.004712937094425</v>
+      </c>
+      <c r="Y2">
+        <v>62.301620259313715</v>
+      </c>
+      <c r="Z2">
+        <v>61.626800735623092</v>
+      </c>
+      <c r="AA2">
+        <v>80.752464140581594</v>
+      </c>
+      <c r="AB2">
+        <v>82.128830973799978</v>
+      </c>
+      <c r="AC2">
+        <v>54.869620958936594</v>
+      </c>
+      <c r="AD2">
+        <v>79.911091813955437</v>
+      </c>
+      <c r="AE2">
+        <v>53.207256993142224</v>
+      </c>
+      <c r="AF2">
+        <v>61.443374693867931</v>
+      </c>
+      <c r="AG2">
+        <v>55.058376391304407</v>
+      </c>
+      <c r="AH2">
+        <v>64.32560979709497</v>
+      </c>
+      <c r="AI2">
+        <v>84.602018253757322</v>
+      </c>
+      <c r="AJ2">
+        <v>60.438377780546034</v>
+      </c>
+      <c r="AK2">
+        <v>63.131591088744877</v>
+      </c>
+      <c r="AL2">
+        <v>72.042727002169613</v>
+      </c>
+      <c r="AM2">
         <v>67.619524936529714</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>53.094941844320054</v>
       </c>
-      <c r="F2">
-        <v>45.201900818982239</v>
-      </c>
-      <c r="G2">
-        <v>61.021036004969567</v>
-      </c>
-      <c r="H2">
-        <v>50.882517835785855</v>
-      </c>
-      <c r="I2">
-        <v>64.035697029911702</v>
-      </c>
-      <c r="J2">
-        <v>72.181089554470915</v>
-      </c>
-      <c r="K2">
-        <v>56.638447429349057</v>
-      </c>
-      <c r="L2">
-        <v>59.546320352410454</v>
-      </c>
-      <c r="M2">
-        <v>72.686021665724326</v>
-      </c>
-      <c r="N2">
-        <v>63.027085385267114</v>
-      </c>
-      <c r="O2">
-        <v>50.720883995457143</v>
-      </c>
-      <c r="P2">
-        <v>63.334500049924571</v>
-      </c>
-      <c r="Q2">
-        <v>63.467330093484748</v>
-      </c>
-      <c r="R2">
-        <v>56.772752200810771</v>
-      </c>
-      <c r="T2">
-        <v>62.255827536065418</v>
-      </c>
-      <c r="U2">
-        <v>60.699203867451772</v>
-      </c>
-      <c r="V2">
-        <v>57.136437623537134</v>
-      </c>
-      <c r="W2">
-        <v>49.599097177109257</v>
-      </c>
-      <c r="X2">
-        <v>59.004712934488992</v>
-      </c>
-      <c r="Y2">
-        <v>62.301620274124531</v>
-      </c>
-      <c r="Z2">
-        <v>61.626800756371836</v>
-      </c>
-      <c r="AA2">
-        <v>80.752464073620629</v>
-      </c>
-      <c r="AB2">
-        <v>82.12883102161247</v>
-      </c>
-      <c r="AC2">
-        <v>54.869620982359919</v>
-      </c>
-      <c r="AD2">
-        <v>79.91109184208338</v>
-      </c>
-      <c r="AE2">
-        <v>53.207256988345499</v>
-      </c>
-      <c r="AF2">
-        <v>61.443374732543319</v>
-      </c>
-      <c r="AG2">
-        <v>55.058376433906616</v>
-      </c>
-      <c r="AH2">
-        <v>64.325609815896556</v>
-      </c>
-      <c r="AI2">
-        <v>84.602018385632007</v>
-      </c>
-      <c r="AJ2">
-        <v>60.438377823617301</v>
-      </c>
-      <c r="AK2">
-        <v>63.131591120524192</v>
-      </c>
-      <c r="AL2">
-        <v>72.042727043096477</v>
-      </c>
-      <c r="AM2">
-        <v>67.619525025977083</v>
-      </c>
-      <c r="AN2">
-        <v>53.094941877967401</v>
-      </c>
       <c r="AO2">
-        <v>71.250371283275939</v>
+        <v>71.25037140994516</v>
       </c>
       <c r="AP2">
-        <v>71.137515128893284</v>
+        <v>71.13751509788267</v>
       </c>
       <c r="AQ2">
-        <v>60.124740185581437</v>
+        <v>60.124740101386323</v>
       </c>
       <c r="AR2">
-        <v>83.447937175966871</v>
+        <v>83.447937167916521</v>
       </c>
       <c r="AS2">
-        <v>76.17801448457179</v>
+        <v>76.178014405360557</v>
       </c>
       <c r="AT2">
-        <v>68.649980891863436</v>
+        <v>68.649980972873649</v>
       </c>
       <c r="AU2">
-        <v>54.507216223639318</v>
+        <v>54.507216236412056</v>
       </c>
       <c r="AV2">
-        <v>64.254420872476715</v>
+        <v>64.254420917441806</v>
       </c>
       <c r="AW2">
-        <v>59.306639450598936</v>
+        <v>59.306639370164078</v>
       </c>
       <c r="AX2">
-        <v>70.87640773486514</v>
+        <v>70.876407676225824</v>
       </c>
       <c r="AY2">
-        <v>70.724576507791625</v>
+        <v>70.72457646312877</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>70.384486170290501</v>
+      </c>
+      <c r="C3">
+        <v>63.988505143930759</v>
+      </c>
+      <c r="D3">
+        <v>60.483041289375052</v>
+      </c>
+      <c r="E3">
+        <v>71.77285540441855</v>
+      </c>
+      <c r="F3">
+        <v>45.104270007755218</v>
+      </c>
+      <c r="G3">
+        <v>62.634653421785274</v>
+      </c>
+      <c r="H3">
+        <v>45.567129172119166</v>
+      </c>
+      <c r="I3">
+        <v>63.224074880552791</v>
+      </c>
+      <c r="J3">
+        <v>75.961147481147549</v>
+      </c>
+      <c r="K3">
+        <v>66.118520844617123</v>
+      </c>
+      <c r="L3">
+        <v>60.546056585837334</v>
+      </c>
+      <c r="M3">
+        <v>64.666462977288475</v>
+      </c>
+      <c r="N3">
         <v>64.919210033023205</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>45.78411335805194</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>66.1010750680895</v>
+      </c>
+      <c r="Q3">
+        <v>56.926436002500452</v>
+      </c>
+      <c r="R3">
+        <v>51.026369555577283</v>
+      </c>
+      <c r="S3">
+        <v>77.16053878347347</v>
+      </c>
+      <c r="T3">
+        <v>66.522765423193363</v>
+      </c>
+      <c r="U3">
+        <v>63.86712766860353</v>
+      </c>
+      <c r="V3">
+        <v>59.196739022117931</v>
+      </c>
+      <c r="W3">
+        <v>53.297979685871965</v>
+      </c>
+      <c r="X3">
+        <v>52.266620294112244</v>
+      </c>
+      <c r="Y3">
+        <v>71.506540644644019</v>
+      </c>
+      <c r="Z3">
+        <v>67.019583118105118</v>
+      </c>
+      <c r="AA3">
+        <v>77.568105282055754</v>
+      </c>
+      <c r="AB3">
+        <v>73.724019474240237</v>
+      </c>
+      <c r="AC3">
+        <v>61.886324484830411</v>
+      </c>
+      <c r="AD3">
+        <v>80.927140792536704</v>
+      </c>
+      <c r="AE3">
+        <v>55.929826632355585</v>
+      </c>
+      <c r="AF3">
+        <v>65.567163319827571</v>
+      </c>
+      <c r="AG3">
+        <v>58.404226706948329</v>
+      </c>
+      <c r="AH3">
+        <v>73.196815625248405</v>
+      </c>
+      <c r="AI3">
+        <v>76.649687835089665</v>
+      </c>
+      <c r="AJ3">
+        <v>66.502189501896112</v>
+      </c>
+      <c r="AK3">
+        <v>69.550600884804425</v>
+      </c>
+      <c r="AL3">
+        <v>72.060608404301377</v>
+      </c>
+      <c r="AM3">
         <v>76.406761011856247</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>51.476800363831472</v>
       </c>
-      <c r="F3">
-        <v>45.104270030611147</v>
-      </c>
-      <c r="G3">
-        <v>62.634653439476907</v>
-      </c>
-      <c r="H3">
-        <v>45.567129161964843</v>
-      </c>
-      <c r="I3">
-        <v>63.224074895407782</v>
-      </c>
-      <c r="J3">
-        <v>75.961147537472357</v>
-      </c>
-      <c r="K3">
-        <v>66.118520849484568</v>
-      </c>
-      <c r="L3">
-        <v>60.546056615088851</v>
-      </c>
-      <c r="M3">
-        <v>64.666878147816263</v>
-      </c>
-      <c r="N3">
-        <v>64.919210043175056</v>
-      </c>
-      <c r="O3">
-        <v>45.784113360122603</v>
-      </c>
-      <c r="P3">
-        <v>66.101075120337924</v>
-      </c>
-      <c r="Q3">
-        <v>56.926436037132333</v>
-      </c>
-      <c r="R3">
-        <v>51.026369658694222</v>
-      </c>
-      <c r="S3">
-        <v>77.160538812303344</v>
-      </c>
-      <c r="T3">
-        <v>66.522765447997159</v>
-      </c>
-      <c r="U3">
-        <v>63.867127695169657</v>
-      </c>
-      <c r="V3">
-        <v>59.19673905960213</v>
-      </c>
-      <c r="W3">
-        <v>53.297979700032812</v>
-      </c>
-      <c r="X3">
-        <v>52.266620308446136</v>
-      </c>
-      <c r="Y3">
-        <v>71.506540685526176</v>
-      </c>
-      <c r="Z3">
-        <v>67.019583136776987</v>
-      </c>
-      <c r="AA3">
-        <v>77.568105248313287</v>
-      </c>
-      <c r="AB3">
-        <v>73.724019517589269</v>
-      </c>
-      <c r="AC3">
-        <v>61.886324577887066</v>
-      </c>
-      <c r="AD3">
-        <v>80.927140926005421</v>
-      </c>
-      <c r="AE3">
-        <v>55.929826726313266</v>
-      </c>
-      <c r="AF3">
-        <v>65.567163379756437</v>
-      </c>
-      <c r="AG3">
-        <v>58.404226751269711</v>
-      </c>
-      <c r="AH3">
-        <v>73.196815663916055</v>
-      </c>
-      <c r="AI3">
-        <v>76.649688040390032</v>
-      </c>
-      <c r="AJ3">
-        <v>66.502189569419329</v>
-      </c>
-      <c r="AK3">
-        <v>69.550601045611529</v>
-      </c>
-      <c r="AL3">
-        <v>72.060608462511411</v>
-      </c>
-      <c r="AM3">
-        <v>76.406761096298993</v>
-      </c>
-      <c r="AN3">
-        <v>51.476800380818105</v>
-      </c>
       <c r="AO3">
-        <v>75.148570494728233</v>
+        <v>75.148570324804382</v>
       </c>
       <c r="AP3">
-        <v>58.873420284175751</v>
+        <v>58.87342024853298</v>
       </c>
       <c r="AQ3">
-        <v>56.726197713294347</v>
+        <v>56.726197686557249</v>
       </c>
       <c r="AR3">
-        <v>86.754310084194046</v>
+        <v>86.754310175715915</v>
       </c>
       <c r="AS3">
-        <v>66.711730013393947</v>
+        <v>66.711730042533702</v>
       </c>
       <c r="AT3">
-        <v>68.938987137780373</v>
+        <v>68.938987067698548</v>
       </c>
       <c r="AU3">
-        <v>60.608764537184349</v>
+        <v>60.608764338599279</v>
       </c>
       <c r="AV3">
-        <v>57.088732963590786</v>
+        <v>57.088732875508498</v>
       </c>
       <c r="AW3">
-        <v>60.564114467890832</v>
+        <v>60.564113645939017</v>
       </c>
       <c r="AX3">
-        <v>65.971450971718596</v>
+        <v>65.971450785856888</v>
       </c>
       <c r="AY3">
-        <v>77.676581892178717</v>
+        <v>77.676581847296006</v>
       </c>
     </row>
   </sheetData>
